--- a/Tyss_Practice/src/main/resources/testScriptData.xlsx
+++ b/Tyss_Practice/src/main/resources/testScriptData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANJUKAVI_MANI\My-Workspace\Tyss_Practice\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="5010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>testID</t>
   </si>
@@ -45,9 +41,6 @@
     <t>orgIndustry</t>
   </si>
   <si>
-    <t>SkillRary</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -63,9 +56,6 @@
     <t>contactLastNam</t>
   </si>
   <si>
-    <t>deepak</t>
-  </si>
-  <si>
     <t>No Organization Found</t>
   </si>
   <si>
@@ -91,6 +81,18 @@
   </si>
   <si>
     <t>Delete contact with Organization</t>
+  </si>
+  <si>
+    <t>AirIndia</t>
+  </si>
+  <si>
+    <t>IndiaGo</t>
+  </si>
+  <si>
+    <t>L&amp;T</t>
+  </si>
+  <si>
+    <t>Rajasekar</t>
   </si>
 </sst>
 </file>
@@ -440,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +473,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -482,22 +484,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -511,33 +513,33 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -550,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -586,19 +588,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2"/>
     </row>
